--- a/gen-static-data-go/sd/xlsx/global.xlsx
+++ b/gen-static-data-go/sd/xlsx/global.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lserver\src\sd\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mgsu\gen-static-data-go\sd\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD63089-DAE2-4C94-9D18-5640758717ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41548729-3B6F-4CD2-8317-B54646B3B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>普通品质分解获得碎片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_xxx_Frag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +450,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -593,9 +597,18 @@
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
